--- a/data/citizen-science-projects-nl.xlsx
+++ b/data/citizen-science-projects-nl.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://www.globe.gov/globedata/visualizeandretrievedata</t>
+          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://www.globe.gov/globedata/visualizeandretrievedata</t>
+          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
         </is>
       </c>
     </row>
@@ -2151,10 +2151,14 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/kha</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://www.wiewaswie.nl/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2205,14 +2209,10 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/kha</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>https://www.wiewaswie.nl/</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2371,14 +2371,10 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>https://www.zeeuwsarchief.nl/zeeuwengezocht/</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2429,10 +2425,14 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/bhic_strafgevangenissen</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>http://www.bhic.nl/onderzoeken/hulp-bij-onderzoek/gevangenisarchieven</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2483,10 +2483,14 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://www.zeeuwsarchief.nl/zeeuwen-gezocht/</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2537,12 +2541,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/bhic_strafgevangenissen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_kaarten</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>http://www.bhic.nl/onderzoeken/hulpbijonderzoek/gevangenisarchieven</t>
+          <t>https://archief.amsterdam/inventarissen/details/10035</t>
         </is>
       </c>
     </row>
@@ -2595,12 +2599,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_kaarten</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/raa</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/inventarissen/details/10035</t>
+          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden-2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
         </is>
       </c>
     </row>
@@ -2653,14 +2657,10 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/raa</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2765,14 +2765,10 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han_nijmegen</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2823,12 +2819,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/wfg_index</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han_nijmegen</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
+          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
         </is>
       </c>
     </row>
@@ -2881,10 +2877,14 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/wfg_index</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2935,14 +2935,10 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/som_index</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2993,12 +2989,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar_index_terneuzenaxel</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/som_index</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://www.zeeuwsarchief.nl/onderzoekhetzelf/</t>
+          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
         </is>
       </c>
     </row>
@@ -3051,10 +3047,14 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/hga_index_gezinskaarten</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar_index_terneuzenaxel</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://www.zeeuwsarchief.nl/onderzoek-het-zelf/</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/uitleg/indexen/41pensioenkaarten18941915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+          <t>https://archief.amsterdam/uitleg/indexen/41-pensioenkaarten-1894-1915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
@@ -3387,14 +3387,10 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/sahm_indexing_persons</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>https://www.samh.nl/</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3445,10 +3441,14 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/sahm_indexing_persons</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://www.samh.nl/</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218640000%22,%2218749999%22%5D,%22d%22:%221864%20%201874%22%7D%7D</t>
+          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218640000%22,%2218749999%22%5D,%22d%22:%221864%20-%201874%22%7D%7D</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://noordhollandsarchief.nl/beelden/beeldbank/?fq%5B%5D=search_s_afbeelding:%22Ja%22&amp;mode=gallery&amp;view=horizontal&amp;sort=random%7B1612191303970%7D%20asc</t>
+          <t>https://noord-hollandsarchief.nl/beelden/beeldbank/?fq%5B%5D=search_s_afbeelding:%22Ja%22&amp;mode=gallery&amp;view=horizontal&amp;sort=random%7B1612191303970%7D%20asc</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://www.kabk.nl/alumni/bachelorbeeldendekunst</t>
+          <t>https://www.kabk.nl/alumni/bachelor-beeldende-kunst</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218740000%22,%2218939999%22%5D,%22d%22:%221874%20%201893%22%7D%7D</t>
+          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218740000%22,%2218939999%22%5D,%22d%22:%221874%20-%201893%22%7D%7D</t>
         </is>
       </c>
     </row>
@@ -4063,10 +4063,14 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_patient</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://archief.amsterdam/uitleg/indexen/42-patientenregisters-1818-1899?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4175,7 +4179,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4229,7 +4233,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/utrecht_transcription_notarieel</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4283,7 +4287,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4337,10 +4341,14 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/militieregisters</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4391,10 +4399,14 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_vrije_volk</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4445,14 +4457,10 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/militieregisters</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4503,12 +4511,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_vrije_volk</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/brd_index_repertoria</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
+          <t>https://www.wiewaswie.nl/</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4569,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4615,14 +4623,10 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/brd_index_repertoria</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>https://www.wiewaswie.nl/</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4673,10 +4677,14 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nat_nbc</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>https://www.naturalis.nl/collectie</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4727,14 +4735,10 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nat_nbc</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>https://www.naturalis.nl/collectie</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/bhic_strafgevangenissen_2</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4785,7 +4789,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/bhic_strafgevangenissen_2</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/huy_correct_resoluties_transkribus</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -4839,10 +4843,14 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/huy_correct_resoluties_transkribus</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nijmegen_bvr</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>https://studiezaal.nijmegen.nl/zoeken.php?zoeken[beschrijvingsgroepen][2145654597]=2145654597</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4893,14 +4901,10 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nijmegen_bvr</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>https://studiezaal.nijmegen.nl/zoeken.php?zoeken[beschrijvingsgroepen][2145654597]=2145654597</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/picvh_bhic_bevolkingsregister</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4951,7 +4955,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/picvh_bhic_bevolkingsregister</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_correct_notarieel_transkribus</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5005,7 +5009,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_correct_notarieel_transkribus</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/hga_index_gezinskaarten</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5229,7 +5233,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5283,14 +5287,10 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_patient</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/uitleg/indexen/42patientenregisters18181899?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/uitleg/indexen/65bevolkingsregisterovergenomendelen18921920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+          <t>https://archief.amsterdam/uitleg/indexen/65-bevolkingsregister-overgenomen-delen-1892-1920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
@@ -5399,10 +5399,14 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>https://www.huisvandenijmeegsegeschiedenis.nl/info/Deelnemersregistratie_Vierdaagse</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5453,12 +5457,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/dre_index_inschrijvingsregisters</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>https://www.huisvandenijmeegsegeschiedenis.nl/info/Deelnemersregistratie_Vierdaagse</t>
+          <t>https://www.drentsarchief.nl/onderzoeken/zoektips/stamboomonderzoek</t>
         </is>
       </c>
     </row>
@@ -5511,14 +5515,10 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/dre_index_inschrijvingsregisters</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>https://www.drentsarchief.nl/onderzoeken/zoektips/stamboomonderzoek</t>
-        </is>
-      </c>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/utrecht_transcription_notarieel</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/uitleg/indexen/67bevolkingsregistergeannexeerdegemeenten18301921</t>
+          <t>https://archief.amsterdam/uitleg/indexen/67-bevolkingsregister-geannexeerde-gemeenten-1830-1921</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>https://hetutrechtsarchief.nl/onderzoek/resultaten/archieven?mivast=39&amp;mizig=210&amp;miadt=39&amp;miaet=1&amp;micode=10072&amp;minr=1307084&amp;miview=inv2&amp;milang=nl</t>
+          <t>https://hetutrechtsarchief.nl/onderzoek/resultaten/archieven?mivast=39&amp;mizig=210&amp;miadt=39&amp;miaet=1&amp;micode=1007-2&amp;minr=1307084&amp;miview=inv2&amp;milang=nl</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>https://stadsarchief.breda.nl/collectie/archief/genealogischebronnen/persons</t>
+          <t>https://stadsarchief.breda.nl/collectie/archief/genealogische-bronnen/persons</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>https://erfgoedcentrumzutphen.nl/onderzoeken/archieven/details/NLZuRAZ0110/path/2.4.1.2.19</t>
+          <t>https://erfgoedcentrumzutphen.nl/onderzoeken/archieven/details/NL-ZuRAZ-0110/path/2.4.1.2.19</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>https://login.munisense.net/login?url=https%3A%2F%2Foutdoorclimate.munisense.net%2F&amp;theme=munisensev2lhis</t>
+          <t>https://login.munisense.net/login?url=https%3A%2F%2Foutdoorclimate.munisense.net%2F&amp;theme=munisense-v2-lhis</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doemeeaanonderzoek/onderzoeksresultaten</t>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>https://milieudefensie.nl/actueel/rapportwatademjijin.pdf</t>
+          <t>https://milieudefensie.nl/actueel/rapport-wat-adem-jij-in.pdf</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>https://grafana.sensemakersams.org/d/m2HAkciWk/mijnomgeving?orgId=1</t>
+          <t>https://grafana.sensemakersams.org/d/m2HAkciWk/mijn-omgeving?orgId=1</t>
         </is>
       </c>
     </row>
@@ -8439,14 +8439,10 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/burgermetingen-schiedam</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>https://www.webgispublisher.nl/schiedam/</t>
-        </is>
-      </c>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-5-zet-m-op-70</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8501,10 +8497,14 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-5-zet-m-op-70</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
+          <t>https://hollandseluchten.waag.org/</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>https://hollandseluchten.waag.org/kaart/</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>https://hollandseluchten.waag.org/</t>
+          <t>https://drinkablerivers.org/what-we-do/citizen-science/</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>https://hollandseluchten.waag.org/kaart/</t>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
         </is>
       </c>
     </row>
@@ -8617,14 +8617,10 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>https://drinkablerivers.org/what-we-do/citizen-science/</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doemeeaanonderzoek/onderzoeksresultaten</t>
-        </is>
-      </c>
+          <t>https://globenederland.nl/onderzoeksprojecten/lichtmeting/</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8675,7 +8671,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>https://globenederland.nl/onderzoeksprojecten/lichtmeting/</t>
+          <t>https://www.scorewater.eu/#3cases</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -8733,10 +8729,14 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>https://www.scorewater.eu/#3cases</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/snuffelfiets</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>https://snuffelfiets.nl/data/</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8795,12 +8795,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/snuffelfiets</t>
+          <t>https://www.eyeonwater.org/about-us</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>https://snuffelfiets.nl/data/</t>
+          <t>https://www.eyeonwater.org/search/</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8857,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>https://www.eyeonwater.org/about-us</t>
+          <t>https://amsterdamsounds.waag.org/</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>https://www.eyeonwater.org/search/</t>
+          <t>https://amsterdamsounds.waag.org/kaart/</t>
         </is>
       </c>
     </row>
@@ -8919,12 +8919,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>https://amsterdamsounds.waag.org/</t>
+          <t>https://explane.org/#:~:text=ExPlane%20is%20the%20app%20to%20register%20aviation%20noise&amp;text=The%20app%20gives%20you%20the,by%20residents%20living%20near%20airports</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>https://amsterdamsounds.waag.org/kaart/</t>
+          <t>https://reports.explane.org/nl/</t>
         </is>
       </c>
     </row>
@@ -8977,14 +8977,10 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>https://explane.org/#:~:text=ExPlane%20is%20the%20app%20to%20register%20aviation%20noise&amp;text=The%20app%20gives%20you%20the,by%20residents%20living%20near%20airports</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>https://reports.explane.org/nl/</t>
-        </is>
-      </c>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-2-check-de-stadsvergroening</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9035,10 +9031,14 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-2-check-de-stadsvergroening</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-luchtkwaliteit-meten-in-zuid-holland</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-luchtkwaliteit-meten-in-zuid-holland</t>
+          <t xml:space="preserve">https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-houtrook-meten </t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-houtrook-meten </t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-2018-2019</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -9217,12 +9217,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-2018-2019</t>
+          <t>https://almeremeetwater.nl/</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+          <t>https://almeremeetwater.nl/kaart/</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>https://almeremeetwater.nl/</t>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-1-waterkwaliteit-in-europa</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>https://almeremeetwater.nl/kaart/</t>
+          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=9f6c2e258f2f40a884335feaf85501a7&amp;extent=3.9538,51.8158,4.968,52.1811</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9337,12 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-1-waterkwaliteit-in-europa</t>
+          <t>https://data.smartemission.nl/home</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=9f6c2e258f2f40a884335feaf85501a7&amp;extent=3.9538,51.8158,4.968,52.1811</t>
+          <t>https://data.smartemission.nl/data</t>
         </is>
       </c>
     </row>
@@ -9399,12 +9399,12 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>https://data.smartemission.nl/home</t>
+          <t>https://www.meetjestad.net/nl/MeetjeStad</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>https://data.smartemission.nl/data</t>
+          <t>https://www.meetjestad.net/data/</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>https://www.meetjestad.net/nl/MeetjeStad</t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-20172018</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>https://www.meetjestad.net/data/</t>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9519,14 +9519,10 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-20172018</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
-        </is>
-      </c>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/ispex</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9577,7 +9573,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/ispex</t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/aireas-eindhoven</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
@@ -9635,10 +9631,14 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/aireas-eindhoven</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/oud-nieuw-2020-2021</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9689,12 +9689,12 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/oud-nieuw-2020-2021</t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9747,14 +9747,10 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
-        </is>
-      </c>
+          <t>https://www.kwrwater.nl/projecten/citizen-science-praktijkpilot-versheid-water/</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9805,10 +9801,14 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>https://www.kwrwater.nl/projecten/citizen-science-praktijkpilot-versheid-water/</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr"/>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerk-2016-2017</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9859,12 +9859,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerk-2016-2017</t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/luftdaten</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9917,12 +9917,12 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>https://www.samenmetenaanluchtkwaliteit.nl/luftdaten</t>
+          <t>https://www.samenmetenaanluchtkwaliteit.nl/burgermetingen-schiedam</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+          <t>https://www.webgispublisher.nl/schiedam/</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>https://www.schonerivieren.org/join/resultatenonderzoeken/</t>
+          <t>https://www.schonerivieren.org/join/resultaten-onderzoeken/</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>https://milieudefensie.nl/actueel/eindrapporthoegezondisonzelucht.pdf</t>
+          <t>https://milieudefensie.nl/actueel/eindrapport-hoe-gezond-is-onze-lucht.pdf</t>
         </is>
       </c>
     </row>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>https://www.luchtmeetnetmaastricht.nl/maastricht/</t>
+          <t>https://www.luchtmeetnet-maastricht.nl/maastricht/</t>
         </is>
       </c>
     </row>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>https://www.nioz.nl/en/about/cos/movementconnectivity/birdmovement/trackingmovementsofspoonbills/followspoonbillsfromthenetherlands</t>
+          <t>https://www.nioz.nl/en/about/cos/movement-connectivity/bird-movement/tracking-movements-of-spoonbills/follow-spoonbills-from-the-netherlands</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>https://www.clo.nl/indicatoren/nl1387libellen</t>
+          <t>https://www.clo.nl/indicatoren/nl1387-libellen</t>
         </is>
       </c>
     </row>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>https://www.naturetoday.com/intl/nl/observations/mosquitoradar</t>
+          <t>https://www.naturetoday.com/intl/nl/observations/mosquito-radar</t>
         </is>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://www.tuintelling.nl/evenementen/avondtelling</t>
+          <t>https://tuintelling.nl/evenementen/tuinvijvertelling</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -12303,12 +12303,12 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>https://tuintelling.nl/evenementen/tuinvijvertelling</t>
+          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/pullen#quicktabs-pullen=0</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -12361,12 +12361,12 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/pullen#quicktabs-pullen=0</t>
+          <t>https://www.nationalebijentelling.nl/</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://www.nationalebijentelling.nl/</t>
+          <t>https://www.ravon.nl/Portals/2/Bestanden/Publicaties/Rapporten/2007.003k.pdf</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://www.ravon.nl/Portals/2/Bestanden/Publicaties/Rapporten/2007.003k.pdf</t>
+          <t>https://www.floron.nl/bermen</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://www.floron.nl/bermen</t>
+          <t>https://www.sovon.nl/nl/actueel/nieuws/lijsters-en-bessen-tellen</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>https://www.sovon.nl/nl/actueel/nieuws/lijsters-en-bessen-tellen</t>
+          <t>https://www.vleermuis.net/</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>https://www.vleermuis.net/</t>
+          <t>https://www.sovon.nl/nl/MUS</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -12709,14 +12709,10 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://www.sovon.nl/nl/MUS</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
-        </is>
-      </c>
+          <t>https://submit.cr-birding.org/page/who_are_we/</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12767,10 +12763,14 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://submit.cr-birding.org/page/who_are_we/</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr"/>
+          <t>https://www.tuintelling.nl/evenementen/avondtelling</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -13270,7 +13270,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>https://www.cbs.nl/nlnl/nieuws/2017/01/verspreidinginvasieveplantensoortentoegenomen en https://www.clo.nl/indicatoren/nl1398invasieveplantensoorten</t>
+          <t>https://www.cbs.nl/nl-nl/nieuws/2017/01/verspreiding-invasieve-plantensoorten-toegenomen en https://www.clo.nl/indicatoren/nl1398-invasieve-plantensoorten</t>
         </is>
       </c>
     </row>
@@ -13672,7 +13672,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>https://euring.org/dataandcodes/obtainingdata</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>

--- a/data/citizen-science-projects-nl.xlsx
+++ b/data/citizen-science-projects-nl.xlsx
@@ -562,7 +562,11 @@
           <t>https://www.archeologieleeft.nl/archeosuccessen/erfgoed-gezocht/</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -620,7 +624,11 @@
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/erfgoed-gezocht</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -674,7 +682,11 @@
           <t>https://www.universiteitleiden.nl/nieuws/2020/04/erfgoed-gezocht-junior-kinderen-speuren-vanuit-huis-mee-met-archeologen</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -848,7 +860,11 @@
           <t>https://www.rivm.nl/rivm/kennis-en-kunde/strategisch-programma-rivm/spr-2015-2018/integrale-risicobeoordeling/ik-heb-nu-last-app</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -902,7 +918,11 @@
           <t>https://www.mycardio.nl/</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1014,7 +1034,11 @@
           <t>https://www.nemokennislink.nl/publicaties/doe-mee-aan-de-grote-griepmeting/</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1246,7 +1270,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/download-je-eigen-deeltjesdetector</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1300,7 +1328,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/bekijk-de-aarde-vanuit-de-ruimte</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1420,7 +1452,11 @@
           <t>https://ronaldbierings.com/over-zicht-op-licht/</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1478,7 +1514,11 @@
           <t>https://www.rug.nl/sciencelinx/maatschappij/curious</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1594,7 +1634,11 @@
           <t>https://www.rivm.nl/burgerwetenschap/shift-diets</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1648,7 +1692,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/hoe-snel-herken-jij-een-liedje</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1706,7 +1754,11 @@
           <t>http://www.kijkeengezondewijk.nl/#/info</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1818,7 +1870,11 @@
           <t>https://www.wetenschapsknooppunten.nl/alle-scholen-verzamelen/citizen-science/</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1872,7 +1928,11 @@
           <t>https://www.nemokennislink.nl/publicaties/zie-ik-spoken/</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1926,7 +1986,11 @@
           <t>https://woordwaark.nl/stemmen/</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2042,7 +2106,11 @@
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-6-nationale-plasticwatch</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2212,7 +2280,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2266,7 +2338,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2320,7 +2396,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2374,7 +2454,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2660,7 +2744,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2714,7 +2802,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2768,7 +2860,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2938,7 +3034,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3224,7 +3324,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/legermuseum</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3336,7 +3440,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/wfg_transcription_notarieel</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3390,7 +3498,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3502,7 +3614,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/duik-historisch-amsterdam</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3556,7 +3672,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/rar_index_repertoria</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3842,7 +3962,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mei</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4012,7 +4136,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/tlb_index</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4182,7 +4310,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4236,7 +4368,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4290,7 +4426,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4460,7 +4600,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4572,7 +4716,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4626,7 +4774,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4738,7 +4890,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/bhic_strafgevangenissen_2</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4792,7 +4948,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/huy_correct_resoluties_transkribus</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4904,7 +5064,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/picvh_bhic_bevolkingsregister</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4958,7 +5122,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_correct_notarieel_transkribus</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5012,7 +5180,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/hga_index_gezinskaarten</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5182,7 +5354,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/ranh_index</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5236,7 +5412,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5290,7 +5470,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5518,7 +5702,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/utrecht_transcription_notarieel</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5630,7 +5818,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/utr_index_bvr_1850_1889</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5684,7 +5876,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/zaa_index_gaarder</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5732,7 +5928,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/reis-terug-de-tijd</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5786,7 +5986,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/afc_tagging_2</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5840,7 +6044,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/zaa_index_bron</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5952,7 +6160,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/fak_noat</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6064,7 +6276,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/utr_bvr</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6118,7 +6334,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/glv_reuvens_transkribus</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6172,7 +6392,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/gea_tagging</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6226,7 +6450,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/moei_index_30dagen</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6512,7 +6740,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/amsterdam_notarieel_2</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6566,7 +6798,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/rivierenland_bvr</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6678,7 +6914,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/hco_resoluties_transkribus</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6906,7 +7146,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/project/sibr_annotate</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6960,7 +7204,11 @@
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/picvh_vpr</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7130,7 +7378,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/airsenseur</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7552,7 +7804,11 @@
           <t>https://www.naturalis.nl/collectie/verborgen-vlinders-het-gestroomlijnd-zichtbaar-maken-van-papillotten</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7796,7 +8052,11 @@
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-4-oeverwatch</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7912,7 +8172,11 @@
           <t>https://www.flevoland.nl/dossiers/waterlab-circulair-water</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7970,7 +8234,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/visibilis</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8144,7 +8412,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/metingen-s-gravendijkwal-rotterdam</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8202,7 +8474,11 @@
           <t>https://boerenmetenwater.nl/aanleiding/</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8442,7 +8718,11 @@
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-5-zet-m-op-70</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8620,7 +8900,11 @@
           <t>https://globenederland.nl/onderzoeksprojecten/lichtmeting/</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8674,7 +8958,11 @@
           <t>https://www.scorewater.eu/#3cases</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8980,7 +9268,11 @@
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-2-check-de-stadsvergroening</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9522,7 +9814,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/ispex</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9576,7 +9872,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/aireas-eindhoven</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9750,7 +10050,11 @@
           <t>https://www.kwrwater.nl/projecten/citizen-science-praktijkpilot-versheid-water/</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10044,7 +10348,11 @@
           <t>https://www.waterforum.net/officiele-start-waterlab-flevoland/</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10520,7 +10828,11 @@
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/oeverplanten</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10690,7 +11002,11 @@
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=27308</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10744,7 +11060,11 @@
           <t>https://www.jagersvereniging.nl/downloads/bestuurdersdocumenten/telprotocol-zomerganzentelling/</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10976,7 +11296,11 @@
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---paardenbloemen</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11030,7 +11354,11 @@
           <t>https://www.floron.nl/meedoen/herbariummateriaal</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11200,7 +11528,11 @@
           <t>https://www.hortusleiden.nl/onderwijs/stoepplantjes-1</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11370,7 +11702,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/bestudeer-wilde-dieren-de-hoge-veluwe</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11660,7 +11996,11 @@
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=25068</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12012,7 +12352,11 @@
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=22655</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12712,7 +13056,11 @@
           <t>https://submit.cr-birding.org/page/who_are_we/</t>
         </is>
       </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12940,7 +13288,11 @@
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/treewifi</t>
         </is>
       </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12994,7 +13346,11 @@
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---kauwtjes</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13048,7 +13404,11 @@
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=26207</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13102,7 +13462,11 @@
           <t>https://www.iedereenwetenschapper.be/projects/hoe-gaat-het-met-de-wilde-eend</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13214,7 +13578,11 @@
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---koolmezen</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13384,7 +13752,11 @@
           <t>https://www.zooniverse.org/projects/anneoverduin/fishing-in-the-past/about/research</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">

--- a/data/citizen-science-projects-nl.xlsx
+++ b/data/citizen-science-projects-nl.xlsx
@@ -749,7 +749,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zo√∂nosenproject</t>
+          <t>Zoönosenproject</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/zo%C3%B6nosenproject</t>
+          <t>https://www.jagersvereniging.nl/downloads/bestuurdersdocumenten/telprotocol-zomerganzentelling/</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Straatpo√´zie</t>
+          <t>Straatpoëzie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stemmen ‚Äì Gronings (Nedersaksisch)</t>
+          <t>Stemmen – Gronings (Nedersaksisch)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/kha</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>https://www.wiewaswie.nl/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/kha</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.wiewaswie.nl/</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.zeeuwsarchief.nl/zeeuwen-gezocht/</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/bhic_strafgevangenissen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>http://www.bhic.nl/onderzoeken/hulp-bij-onderzoek/gevangenisarchieven</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2567,12 +2567,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://www.zeeuwsarchief.nl/zeeuwen-gezocht/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_kaarten</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/bhic_strafgevangenissen</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/inventarissen/details/10035</t>
+          <t>http://www.bhic.nl/onderzoeken/hulp-bij-onderzoek/gevangenisarchieven</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/raa</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_kaarten</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden-2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
+          <t>https://archief.amsterdam/inventarissen/details/10035</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/raa</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden-2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han_nijmegen</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han_nijmegen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/wfg_index</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
+          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
         </is>
       </c>
     </row>
@@ -2973,12 +2973,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/wfg_index</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/som_index</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
         </is>
       </c>
     </row>
@@ -3089,24 +3089,24 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/som_index</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar_index_terneuzenaxel</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
+          <t>https://www.zeeuwsarchief.nl/onderzoek-het-zelf/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hagenaars en Hagenezen - Bevolkingsregister Den Haag 1913 ‚Äì 1939</t>
+          <t>Diamantbewerkers Amsterdam</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens describe cards with photos of families that lived in Den Haag between 1913 and 1939. </t>
+          <t>Citizens help index membership registers from the union for diamond workers from 1894 on up.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Haags Gemeentearchief</t>
+          <t>Internationaal Instituut voor Sociale Geschiedenis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3127,44 +3127,44 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar_index_terneuzenaxel</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/mbi</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://www.zeeuwsarchief.nl/onderzoek-het-zelf/</t>
+          <t>https://search.iisg.amsterdam/Record/ARCH00210</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diamantbewerkers Amsterdam</t>
+          <t>Tot uw Dienst!</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Citizens help index membership registers from the union for diamond workers from 1894 on up.</t>
+          <t>Citizens help index retirement cards from people that have worked for the municipality of Amsterdam.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Internationaal Instituut voor Sociale Geschiedenis</t>
+          <t>Stadsarchief Amsterdam</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3185,11 +3185,11 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -3205,24 +3205,24 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/mbi</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_pensioen</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://search.iisg.amsterdam/Record/ARCH00210</t>
+          <t>https://archief.amsterdam/uitleg/indexen/41-pensioenkaarten-1894-1915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tot uw Dienst!</t>
+          <t>Officiersboekjes Nationaal Militair Museum 1811 - 1940</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Citizens help index retirement cards from people that have worked for the municipality of Amsterdam.</t>
+          <t xml:space="preserve">Citizens help transcribe books of officers in service between 1811 and 1940. </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Stadsarchief Amsterdam</t>
+          <t xml:space="preserve">Nationaal Militair Museum </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3243,44 +3243,44 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_pensioen</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/legermuseum</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/uitleg/indexen/41-pensioenkaarten-1894-1915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Officiersboekjes Nationaal Militair Museum 1811 - 1940</t>
+          <t>Bevolkingsregisters Amsterdam 1853 - 1863</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help transcribe books of officers in service between 1811 and 1940. </t>
+          <t>Citizens help index scans of population registers from Amsterdam between 1853 and 1863.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nationaal Militair Museum </t>
+          <t>Stadsarchief Amsterdam</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3301,44 +3301,44 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/legermuseum</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_13442</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://archief.amsterdam/indexen/persons</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bevolkingsregisters Amsterdam 1853 - 1863</t>
+          <t>Compareerden voor mij</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Citizens help index scans of population registers from Amsterdam between 1853 and 1863.</t>
+          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Westfriesland between 1843 and 1915. </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Stadsarchief Amsterdam</t>
+          <t>Westfries Archief</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3359,44 +3359,44 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_13442</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/wfg_transcription_notarieel</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/indexen/persons</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Compareerden voor mij</t>
+          <t>Amsterdamse Doodsoorzaken 1854 – 1940</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Westfriesland between 1843 and 1915. </t>
+          <t>Citizens register the information on scans of cards regarding cause of death in Amsterdam betweeen 1854 and 1940.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Westfries Archief</t>
+          <t>Radboud University</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3417,17 +3417,17 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/wfg_transcription_notarieel</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3495,12 +3495,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/sahm_indexing_persons</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.samh.nl/</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/sahm_indexing_persons</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>https://www.samh.nl/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ja -  ik wil!</t>
+          <t>Volgende Patiënt!</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help digitalize registered banns from Amsterdam between 1602 and 1811. </t>
+          <t xml:space="preserve">Citizens help index patient registers from hospitals in Amsterdam between 1818 and 1899. </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Utrecht University</t>
+          <t>Stadsarchief Amsterdam</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4181,12 +4181,12 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Probably viewable</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Unsure</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4203,12 +4203,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Verlos Gelderse Geboorteakten</t>
+          <t>Ja -  ik wil!</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index birth certificates from Gelderland between 1819 and 1912. </t>
+          <t xml:space="preserve">Citizens help digitalize registered banns from Amsterdam between 1602 and 1811. </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gelders Archief</t>
+          <t>Utrecht University</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4229,7 +4229,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4239,34 +4239,34 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unsure</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/gda</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>https://www.geldersarchief.nl/bronnen/archieven/?mivast=37&amp;miadt=37&amp;mizig=128&amp;miview=tbl&amp;milang=nl&amp;micols=1&amp;misort=last_mod%7Cdesc&amp;mib1=113</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Amsterdamse Doodsoorzaken 1854 ‚Äì 1940</t>
+          <t>Verlos Gelderse Geboorteakten</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Citizens register the information on scans of cards regarding cause of death in Amsterdam betweeen 1854 and 1940.</t>
+          <t xml:space="preserve">Citizens help index birth certificates from Gelderland between 1819 and 1912. </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Radboud University</t>
+          <t>Gelders Archief</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4287,44 +4287,44 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/gda</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.geldersarchief.nl/bronnen/archieven/?mivast=37&amp;miadt=37&amp;mizig=128&amp;miview=tbl&amp;milang=nl&amp;micols=1&amp;misort=last_mod%7Cdesc&amp;mib1=113</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Utrechtse notari√´le akten (1780 - 1811)</t>
+          <t>Holland Amerika Lijn Passagierslijsten</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Utrecht between 1780 and 1811. </t>
+          <t>Citizens help index scans of repatriation lists of the people that were emigrated using the Holland Amerika Lijn between 1900 and 1969.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gemeentearchief Utrecht</t>
+          <t>Stadsarchief Rotterdam</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4345,7 +4345,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4377,12 +4377,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Holland Amerika Lijn Passagierslijsten</t>
+          <t>Captions for Cas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Citizens help index scans of repatriation lists of the people that were emigrated using the Holland Amerika Lijn between 1900 and 1969.</t>
+          <t xml:space="preserve">Citizens caption photos made by Cas Oorthuys between 1935 and 1975. </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stadsarchief Rotterdam</t>
+          <t>Nederlands Fotomuseum</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4435,12 +4435,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Captions for Cas</t>
+          <t>80.000 minuten</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens caption photos made by Cas Oorthuys between 1935 and 1975. </t>
+          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Leiden between 1564 and 1811. </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nederlands Fotomuseum</t>
+          <t>Regionaal Archief Leiden</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4461,7 +4461,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4481,24 +4481,24 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/militieregisters</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>80.000 minuten</t>
+          <t>Militieregisters 1814 - 1941</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Leiden between 1564 and 1811. </t>
+          <t>Citizens help index scans of the people that once were registered with the military from the period from 1814 up until 1941.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Regionaal Archief Leiden</t>
+          <t>Archief Delft, Archief Eemland, Historisch Informatie Centrum,  Gemeentearchief Barneveld, Gemeentearchief Ede, Gemeentearchief Waalwijk, Het Markiezenhof, Het Utrechts Archief, Noord-Hollands Archief, Regionaal Archief Nijmegen, Regionaal Archief Zutphen, Stadsarchief ‚Äôs-Hertogenbosch, Stadsarchief Amsterdam, Streekarchief Land van Heusden en Altena, Streekarchief Voorne-Putten en Rozenburg and Tresoar (Friesland)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4519,44 +4519,44 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_vrije_volk</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/militieregisters</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
+          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Militieregisters 1814 - 1941</t>
+          <t>Het Vrije Volk</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Citizens help index scans of the people that once were registered with the military from the period from 1814 up until 1941.</t>
+          <t>Citizens describe photos that have appeared in the paper Het Vrije Volk.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Archief Delft, Archief Eemland, Historisch Informatie Centrum,  Gemeentearchief Barneveld, Gemeentearchief Ede, Gemeentearchief Waalwijk, Het Markiezenhof, Het Utrechts Archief, Noord-Hollands Archief, Regionaal Archief Nijmegen, Regionaal Archief Zutphen, Stadsarchief ‚Äôs-Hertogenbosch, Stadsarchief Amsterdam, Streekarchief Land van Heusden en Altena, Streekarchief Voorne-Putten en Rozenburg and Tresoar (Friesland)</t>
+          <t>Stadsarchief Amsterdam</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4577,11 +4577,11 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -4597,24 +4597,24 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_vrije_volk</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Het Vrije Volk</t>
+          <t>Wittebroodsweken</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Citizens describe photos that have appeared in the paper Het Vrije Volk.</t>
+          <t xml:space="preserve">Citizens help index scans of marriage certificates from Gelderland between 1923 and 1942. </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Stadsarchief Amsterdam</t>
+          <t>Gelders Archief</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4635,44 +4635,44 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/brd_index_repertoria</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://www.wiewaswie.nl/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wittebroodsweken</t>
+          <t>Bredase notarissen 1843 - 1905</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index scans of marriage certificates from Gelderland between 1923 and 1942. </t>
+          <t xml:space="preserve">Citizens help index archives of notaries located in Breda from 1843 to 1905. </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Gelders Archief</t>
+          <t>Stadsarchief Breda</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4693,7 +4693,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t xml:space="preserve">Viewable once finished </t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4713,24 +4713,24 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/brd_index_repertoria</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.wiewaswie.nl/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bredase notarissen 1843 - 1905</t>
+          <t>AlleFriezen - Bevolkingsregisters</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index archives of notaries located in Breda from 1843 to 1905. </t>
+          <t>Citizens help index scans of population registers from Friesland between 1850 and 1939.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Stadsarchief Breda</t>
+          <t>AlleFriezen</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4751,7 +4751,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable once finished </t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -4783,12 +4783,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AlleFriezen - Bevolkingsregisters</t>
+          <t>Glashelder!</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Citizens help index scans of population registers from Friesland between 1850 and 1939.</t>
+          <t xml:space="preserve">Citizens help index the old labels on microscopic glass preparations containing mites, springtails and other small organisms in the collection of Naturalis. </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>AlleFriezen</t>
+          <t>Naturalis Biodiversity Center</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4813,18 +4813,18 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4841,12 +4841,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Glashelder!</t>
+          <t>Geboeid door boeven! Inschrijfboeken van Brabantse Huizen van Bewaring 19e eeuw</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index the old labels on microscopic glass preparations containing mites, springtails and other small organisms in the collection of Naturalis. </t>
+          <t xml:space="preserve">Citizens help digitalize the registration files from prisons in Brabant in the 19th century. </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Naturalis Biodiversity Center</t>
+          <t>Brabants Historisch Informatie Centrum</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4867,22 +4867,22 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unsure</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4899,12 +4899,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Geboeid door boeven! Inschrijfboeken van Brabantse Huizen van Bewaring 19e eeuw</t>
+          <t>Goetgevonden! Besluiten van de Staten-Generaal (1576 - 1796)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help digitalize the registration files from prisons in Brabant in the 19th century. </t>
+          <t>Citizens help transcribe the resolutions adopted by the Staten-Generaal between 1576 and 1796.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brabants Historisch Informatie Centrum</t>
+          <t>Huygens ING</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4925,22 +4925,22 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Probably viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Unsure</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -4957,12 +4957,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Goetgevonden! Besluiten van de Staten-Generaal (1576 - 1796)</t>
+          <t>Regionaal Archief Nijmegen - Bevolkingsregisters 1850 - 1890</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Citizens help transcribe the resolutions adopted by the Staten-Generaal between 1576 and 1796.</t>
+          <t>Citizens help index scans of population registers from Nijmegen between 1850 and 1890.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Huygens ING</t>
+          <t>Regionaal Archief Nijmegen</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4983,22 +4983,22 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5015,12 +5015,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Regionaal Archief Nijmegen - Bevolkingsregisters 1850 - 1890</t>
+          <t>Goed geregeld! Brabanders in het Bosch' Protocol 1501 - 1793</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Citizens help index scans of population registers from Nijmegen between 1850 and 1890.</t>
+          <t xml:space="preserve">Citizens help transcribe scans of the Bosch' Protocol by name, location and event. </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Regionaal Archief Nijmegen</t>
+          <t>Erfgoed 's-Hertogenbosch</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5041,22 +5041,22 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5073,12 +5073,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Goed geregeld! Brabanders in het Bosch' Protocol 1501 - 1793</t>
+          <t>Crowd leert computer lezen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help transcribe scans of the Bosch' Protocol by name, location and event. </t>
+          <t xml:space="preserve">Citizens help train an AI to read old notary deeds by correcting the transcription made by the computer. </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Erfgoed 's-Hertogenbosch</t>
+          <t>Stadsarchief Amsterdam</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -5131,12 +5131,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Crowd leert computer lezen</t>
+          <t>Hagenaars en Hagenezen - Bevolkingsregister Den Haag 1913 – 1939</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help train an AI to read old notary deeds by correcting the transcription made by the computer. </t>
+          <t xml:space="preserve">Citizens describe cards with photos of families that lived in Den Haag between 1913 and 1939. </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Stadsarchief Amsterdam</t>
+          <t>Haags Gemeentearchief</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5157,7 +5157,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -5421,12 +5421,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Volgende Pati√´nt!</t>
+          <t>Overgenomen Delen 1892-1920</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index patient registers from hospitals in Amsterdam between 1818 and 1899. </t>
+          <t xml:space="preserve">Citizens help index the data from scans on people that have died or left Amsterdam from 1892 up until 1920. </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5447,11 +5447,11 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -5467,24 +5467,24 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/amsterdam_ogd</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://archief.amsterdam/uitleg/indexen/65-bevolkingsregister-overgenomen-delen-1892-1920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Overgenomen Delen 1892-1920</t>
+          <t>Nieuws 2.0! Lokale kronieken -  1500 - 1850</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help index the data from scans on people that have died or left Amsterdam from 1892 up until 1920. </t>
+          <t xml:space="preserve">Citizens help annotate transcribed Dutch chronicles. </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Stadsarchief Amsterdam</t>
+          <t>Leiden University and VU Amsterdam</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5505,44 +5505,44 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/amsterdam_ogd</t>
+          <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>https://archief.amsterdam/uitleg/indexen/65-bevolkingsregister-overgenomen-delen-1892-1920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nieuws 2.0! Lokale kronieken -  1500 - 1850</t>
+          <t>Vele Voeten</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help annotate transcribed Dutch chronicles. </t>
+          <t xml:space="preserve">Citizens help digitalize participant registers of the Nijmegen Four Days Marches in a public project (regarding the participants between 1921 and 1939) and a closed project (regarding the participants between 1941 and 1987). </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Leiden University and VU Amsterdam</t>
+          <t>Regionaal Archief Nijmegen</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5563,22 +5563,22 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Probably viewable once finished</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -5595,12 +5595,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Vele Voeten</t>
+          <t>Familie van je?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help digitalize participant registers of the Nijmegen Four Days Marches in a public project (regarding the participants between 1921 and 1939) and a closed project (regarding the participants between 1941 and 1987). </t>
+          <t>Citizens help index scans with data of the people that have lived between 1822 and 1859 in Veenhuizen, on the Ommerschans and in the colonies Frederiksoord, Wilhelminaoord and Willemsoord.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Regionaal Archief Nijmegen</t>
+          <t>Drents Archief</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5621,11 +5621,11 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -5653,12 +5653,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Familie van je?</t>
+          <t>Utrechtse notariële akten (1780 - 1811)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Citizens help index scans with data of the people that have lived between 1822 and 1859 in Veenhuizen, on the Ommerschans and in the colonies Frederiksoord, Wilhelminaoord and Willemsoord.</t>
+          <t xml:space="preserve">Citizens transcribe notary deeds from notaries from Utrecht between 1780 and 1811. </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Drents Archief</t>
+          <t>Gemeentearchief Utrecht</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5679,22 +5679,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>Probably viewable once finished</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8665,12 +8665,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Geluid-‚Äã en luchtkwaliteit</t>
+          <t>Zet 'm op 70!</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens in Schiedam place sensors that measure the amount of noise and the air quality. </t>
+          <t xml:space="preserve">Citizens decrease the temperature of the water with which their house is warmed, from 80-90 degrees Celsius to 70 degrees Celsius for two months. They also place automatic sensors that measure the temperatures inside and outside. Lastly, they fill out a questionnaire regarding their experiences.  </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gemeente Schiedam, DCMR, Ministerie van Infrastructuur en Milieu and the RIVM </t>
+          <t>WaterLab (TU Delft) and Warm in de Wijk</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -8688,14 +8688,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schiedam </t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Multiple municipalities</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -8705,12 +8705,12 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -8727,12 +8727,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Zet 'm op 70!</t>
+          <t>Hollandse Luchten</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens decrease the temperature of the water with which their house is warmed, from 80-90 degrees Celsius to 70 degrees Celsius for two months. They also place automatic sensors that measure the temperatures inside and outside. Lastly, they fill out a questionnaire regarding their experiences.  </t>
+          <t xml:space="preserve">Citizens in Noord-Holland place sensors that measure the local air quality. </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>WaterLab (TU Delft) and Warm in de Wijk</t>
+          <t>RIVM, Waag Technology and Society, de Gemeente Zaanstad, Gemeente Haarlem, Omgevingsdienst IJmond, Omgevingsdienst Noordzeekanaal, TATA Steel, Smart City Haarlem, Buiksloterham Circulair, Studio O, Stofmelder and Brak! IJmuiden</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -8750,14 +8750,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Multiple municipalities</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NoordHolland</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -8767,12 +8767,12 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -8789,12 +8789,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hollandse Luchten</t>
+          <t>Drinkable Rivers</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens in Noord-Holland place sensors that measure the local air quality. </t>
+          <t xml:space="preserve">Citizens sign in and pick up one of the test kits from one of the locations located all over Europe. The kits are used to collect samples of water and measure the water quality. Results are entered into a database. </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8804,19 +8804,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RIVM, Waag Technology and Society, de Gemeente Zaanstad, Gemeente Haarlem, Omgevingsdienst IJmond, Omgevingsdienst Noordzeekanaal, TATA Steel, Smart City Haarlem, Buiksloterham Circulair, Studio O, Stofmelder and Brak! IJmuiden</t>
+          <t>WaterLab (TU Delft), Li An Phoa (started it) and Dr. Renata van der Weijden (WUR)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>NoordHolland</t>
-        </is>
-      </c>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
         <v>2019</v>
@@ -8851,12 +8847,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Drinkable Rivers</t>
+          <t>Nationale Lichtmeting</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens sign in and pick up one of the test kits from one of the locations located all over Europe. The kits are used to collect samples of water and measure the water quality. Results are entered into a database. </t>
+          <t xml:space="preserve">Elementary school children build their own spectroscope and see what lamps are used in their surroundings. </t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8866,33 +8862,33 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>WaterLab (TU Delft), Li An Phoa (started it) and Dr. Renata van der Weijden (WUR)</t>
+          <t>GLOBE Nederand</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>The Netherlands</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -8909,12 +8905,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Nationale Lichtmeting</t>
+          <t>SCOREwater</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elementary school children build their own spectroscope and see what lamps are used in their surroundings. </t>
+          <t xml:space="preserve">Citizens help investigate how the city of Amersfoort can become more adaptive to the changing climate, especially with regards to flooding as this is a problem in the city. </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -8924,22 +8920,26 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>GLOBE Nederand</t>
+          <t xml:space="preserve">Gemeente Amersfoort, Civity, Eurecat, City of Gothenburg, HydroLogic, IERMB, IVL, s::can, Talkpool, Universeum, ICRA, Swedish Hydro Solutions, Future City Foundation and Barcelona Cicle de l‚ÄôAigua. </t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
+          <t>The Netherlands, Sweden, Spain</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>The Netherlands: Amersfoort; Sweden: Gothenburg; Spain: Barcelona</t>
+        </is>
+      </c>
       <c r="H145" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -8967,12 +8967,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SCOREwater</t>
+          <t>Snuffelfiets</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help investigate how the city of Amersfoort can become more adaptive to the changing climate, especially with regards to flooding as this is a problem in the city. </t>
+          <t xml:space="preserve">Citizens measure air quality through sensors attached to their bicycles by cycling different routes. </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -8982,20 +8982,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gemeente Amersfoort, Civity, Eurecat, City of Gothenburg, HydroLogic, IERMB, IVL, s::can, Talkpool, Universeum, ICRA, Swedish Hydro Solutions, Future City Foundation and Barcelona Cicle de l‚ÄôAigua. </t>
+          <t>Provincie Utrecht, Civity, SODAQ and the RIVM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The Netherlands, Sweden, Spain</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>The Netherlands: Amersfoort; Sweden: Gothenburg; Spain: Barcelona</t>
-        </is>
-      </c>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Utrecht province</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
         <v>2019</v>
       </c>
@@ -9004,15 +9004,19 @@
           <t>ongoing</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2018 pilot</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t xml:space="preserve">Viewable </t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -9029,12 +9033,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Snuffelfiets</t>
+          <t>EyeOnWater</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens measure air quality through sensors attached to their bicycles by cycling different routes. </t>
+          <t>Citizens help classify rivers, lakes, coastal waters, seas and oceans based on their color with the help of an app.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9044,7 +9048,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Provincie Utrecht, Civity, SODAQ and the RIVM</t>
+          <t>NIOZ and VU Amsterdam</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -9052,28 +9056,24 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Utrecht province</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Also Worldwide</t>
+        </is>
+      </c>
       <c r="H147" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>2018 pilot</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable </t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -9095,12 +9095,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EyeOnWater</t>
+          <t>Amsterdam Sounds</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Citizens help classify rivers, lakes, coastal waters, seas and oceans based on their color with the help of an app.</t>
+          <t xml:space="preserve">Citizens in Amsterdam place sensors that measure the amount and kind of noise. </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NIOZ and VU Amsterdam</t>
+          <t>Gemeente Amsterdam, Ombudsman Metropool Amsterdam, Sensemakers Amsterdam, Sensing Clues and Waag Technology &amp; Society</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -9118,14 +9118,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Also Worldwide</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -9157,12 +9157,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Amsterdam Sounds</t>
+          <t>Explane</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens in Amsterdam place sensors that measure the amount and kind of noise. </t>
+          <t>Citizens meausre the noise made by planes with their smartphones.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Gemeente Amsterdam, Ombudsman Metropool Amsterdam, Sensemakers Amsterdam, Sensing Clues and Waag Technology &amp; Society</t>
+          <t>SchipholWatch</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -9180,14 +9180,10 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -9219,12 +9215,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Explane</t>
+          <t>Check de Stadvergroening!</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Citizens meausre the noise made by planes with their smartphones.</t>
+          <t>Citizens first register, alone or in a group, and then follow a step-by-step plan of what they ought to do. They inspect a place they choose themselves on what the soil consists of, and check the draining of rainwater and whether flooding occurs after heavy rain.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9234,7 +9230,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SchipholWatch</t>
+          <t>WaterLab (TU Delft) and the Hoogheemsraadschap of Delftland</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -9255,12 +9251,12 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -9277,12 +9273,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Check de Stadvergroening!</t>
+          <t>Samen Luchtkwaliteit Meten in Zuid-Holland</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Citizens first register, alone or in a group, and then follow a step-by-step plan of what they ought to do. They inspect a place they choose themselves on what the soil consists of, and check the draining of rainwater and whether flooding occurs after heavy rain.</t>
+          <t xml:space="preserve">Citizens place sensors that measure the local air quality. This is mostly done in so-called "meetclubs", where multiple sensors are placed close to each other in cluster. </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9292,7 +9288,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>WaterLab (TU Delft) and the Hoogheemsraadschap of Delftland</t>
+          <t>Provincie Zuid-Holland, RIVM and DCMR Milieudienst Rijnmond</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -9300,10 +9296,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZuidHolland </t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -9313,12 +9313,12 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -9335,12 +9335,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Samen Luchtkwaliteit Meten in Zuid-Holland</t>
+          <t>CHARRED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens place sensors that measure the local air quality. This is mostly done in so-called "meetclubs", where multiple sensors are placed close to each other in cluster. </t>
+          <t xml:space="preserve">Citizens measure the amount of fine dust by putting sensors in their backyards. </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Provincie Zuid-Holland, RIVM and DCMR Milieudienst Rijnmond</t>
+          <t>RIVM, GGD Amsterdam, Stichting HoutrookVrij and the Longfonds</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -9360,12 +9360,16 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">ZuidHolland </t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
       <c r="H152" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -9375,7 +9379,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t xml:space="preserve">Viewable </t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -9397,12 +9401,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CHARRED</t>
+          <t>Vuurwerkexperiment 2018 - 2019</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens measure the amount of fine dust by putting sensors in their backyards. </t>
+          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9412,7 +9416,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RIVM, GGD Amsterdam, Stichting HoutrookVrij and the Longfonds</t>
+          <t>RIVM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -9420,28 +9424,20 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Pilot</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable </t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -9463,12 +9459,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vuurwerkexperiment 2018 - 2019</t>
+          <t>Almere meet water</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
+          <t xml:space="preserve">Citizens get one of the measuring toolboxes and measure the quality of the water in their neighborhood. </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -9478,7 +9474,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RIVM</t>
+          <t>Gemeente Almere, Waterschap Zuiderzeeland, knowledge institutions Deltares and Wageningen Environmental Research (WEnR), artist Pav√®l van Houten, Almere Stad &amp; Natuur and Waterburgemeester Almere</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -9486,10 +9482,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Almere</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t xml:space="preserve">Viewable </t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -9521,12 +9521,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Almere meet water</t>
+          <t>Waterkwaliteit in Europa</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens get one of the measuring toolboxes and measure the quality of the water in their neighborhood. </t>
+          <t xml:space="preserve">Citizens first request research packages with which they collect a sample of water they send back. </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -9536,32 +9536,28 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Gemeente Almere, Waterschap Zuiderzeeland, knowledge institutions Deltares and Wageningen Environmental Research (WEnR), artist Pav√®l van Houten, Almere Stad &amp; Natuur and Waterburgemeester Almere</t>
+          <t>WaterLab (TU Delft) and KWR</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Almere</t>
-        </is>
-      </c>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable </t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -9583,12 +9579,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Waterkwaliteit in Europa</t>
+          <t>Smart Emission Nijmegen Project</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens first request research packages with which they collect a sample of water they send back. </t>
+          <t xml:space="preserve">Citizens in Nijmegen place sensors that measure the air quality, the amount of noise, vibrations en meteorological indicators. </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -9598,22 +9594,26 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>WaterLab (TU Delft) and KWR</t>
+          <t>Radboud University, gemeente Nijmegen, Geonovum, Intemo, CityGIS and the RIVM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -9641,12 +9641,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Smart Emission Nijmegen Project</t>
+          <t>Meet je Stad</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens in Nijmegen place sensors that measure the air quality, the amount of noise, vibrations en meteorological indicators. </t>
+          <t xml:space="preserve">Citizens measure temperature, humidity, air quity and soil moisture. </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Radboud University, gemeente Nijmegen, Geonovum, Intemo, CityGIS and the RIVM</t>
+          <t>Gemeente Amersfoort, Waterschap Vallei en Veluwe and Hogeschool van Amsterdam</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amersfoort</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -9703,12 +9703,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Meet je Stad</t>
+          <t>Vuurwerkexperiment 2017/2018</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens measure temperature, humidity, air quity and soil moisture. </t>
+          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Gemeente Amersfoort, Waterschap Vallei en Veluwe and Hogeschool van Amsterdam</t>
+          <t>RIVM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -9726,24 +9726,20 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Amersfoort</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t xml:space="preserve">Viewable </t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -9765,12 +9761,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Vuurwerkexperiment 2017/2018</t>
+          <t>iSPEX</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
+          <t>Citizens help measure fine dust in the air.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9780,7 +9776,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RIVM</t>
+          <t>RIVM, NOVA, SRON and the KNMI</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -9791,22 +9787,22 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable </t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -9823,12 +9819,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>iSPEX</t>
+          <t>AiREAS Eindhoven</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Citizens help measure fine dust in the air.</t>
+          <t>Citizens set up a project to measure air quality in the city of Eindhoven.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -9838,7 +9834,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RIVM, NOVA, SRON and the KNMI</t>
+          <t>Stichting STIR (Stad van Morgen)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -9846,14 +9842,18 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -9881,12 +9881,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AiREAS Eindhoven</t>
+          <t>Oud &amp; Nieuw 2020 - 2021</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Citizens set up a project to measure air quality in the city of Eindhoven.</t>
+          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Stichting STIR (Stad van Morgen)</t>
+          <t>RIVM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -9904,29 +9904,25 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Eindhoven</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -9943,12 +9939,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Oud &amp; Nieuw 2020 - 2021</t>
+          <t>Samen Meten aan Luchtkwaliteit</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
+          <t xml:space="preserve">Citizens measure airquality by putting sensors in their backyards. </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -9958,7 +9954,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RIVM</t>
+          <t xml:space="preserve">RIVM </t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -9969,11 +9965,11 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -10001,12 +9997,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Samen Meten aan Luchtkwaliteit</t>
+          <t>Versheid van Water</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens measure airquality by putting sensors in their backyards. </t>
+          <t xml:space="preserve">Citizens help researchers use the new technique Next Generation Sequencing to determine whether water is a fresh product. </t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -10016,7 +10012,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">RIVM </t>
+          <t>Waternet and KWR Watercycle Research Institute</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -10027,22 +10023,22 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Viewable</t>
+          <t>No direct download</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -10059,12 +10055,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Versheid van Water</t>
+          <t>Vuurwerk 2016 - 2017</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens help researchers use the new technique Next Generation Sequencing to determine whether water is a fresh product. </t>
+          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10074,7 +10070,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Waternet and KWR Watercycle Research Institute</t>
+          <t>RIVM</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -10085,22 +10081,22 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>No direct download</t>
+          <t xml:space="preserve">Viewable </t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -10117,12 +10113,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Vuurwerk 2016 - 2017</t>
+          <t>Luftdaten op Sensor.community</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Citizens help measure fine dust in the air during New Year's Eve.</t>
+          <t xml:space="preserve">Citizens place sensors that measure the local air quality. </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10132,7 +10128,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RIVM</t>
+          <t>RIVM, Luftdaten and Sensor Community</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -10143,17 +10139,17 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viewable </t>
+          <t>Viewable</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -10175,12 +10171,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Luftdaten op Sensor.community</t>
+          <t>Geluid-​ en luchtkwaliteit</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens place sensors that measure the local air quality. </t>
+          <t xml:space="preserve">Citizens in Schiedam place sensors that measure the amount of noise and the air quality. </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -10190,7 +10186,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RIVM, Luftdaten and Sensor Community</t>
+          <t xml:space="preserve">Gemeente Schiedam, DCMR, Ministerie van Infrastructuur en Milieu and the RIVM </t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -10198,10 +10194,14 @@
           <t>The Netherlands</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schiedam </t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Onze Lucht ‚Äì zelf fijnstof meten in Noord-Nederland</t>
+          <t>Onze Lucht – zelf fijnstof meten in Noord-Nederland</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -11057,12 +11057,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>https://www.jagersvereniging.nl/downloads/bestuurdersdocumenten/telprotocol-zomerganzentelling/</t>
+          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/zo%C3%B6nosenproject</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://tuintelling.nl/evenementen/tuinvijvertelling</t>
+          <t>https://www.tuintelling.nl/evenementen/avondtelling</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -12647,12 +12647,12 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/pullen#quicktabs-pullen=0</t>
+          <t>https://tuintelling.nl/evenementen/tuinvijvertelling</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
+          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12705,12 +12705,12 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://www.nationalebijentelling.nl/</t>
+          <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/pullen#quicktabs-pullen=0</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://www.ravon.nl/Portals/2/Bestanden/Publicaties/Rapporten/2007.003k.pdf</t>
+          <t>https://www.nationalebijentelling.nl/</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://www.floron.nl/bermen</t>
+          <t>https://www.ravon.nl/Portals/2/Bestanden/Publicaties/Rapporten/2007.003k.pdf</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://www.sovon.nl/nl/actueel/nieuws/lijsters-en-bessen-tellen</t>
+          <t>https://www.floron.nl/bermen</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>https://www.vleermuis.net/</t>
+          <t>https://www.sovon.nl/nl/actueel/nieuws/lijsters-en-bessen-tellen</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>https://www.sovon.nl/nl/MUS</t>
+          <t>https://www.vleermuis.net/</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -13053,12 +13053,12 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://submit.cr-birding.org/page/who_are_we/</t>
+          <t>https://www.sovon.nl/nl/MUS</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13111,12 +13111,12 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://www.tuintelling.nl/evenementen/avondtelling</t>
+          <t>https://submit.cr-birding.org/page/who_are_we/</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/citizen-science-projects-nl.xlsx
+++ b/data/citizen-science-projects-nl.xlsx
@@ -507,12 +507,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>data_url</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>project_information_url</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>data_url</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>https://www.archeologieleeft.nl/archeosuccessen/erfgoed-gezocht/</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/erfgoed-gezocht</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -697,12 +697,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/nieuws/2020/04/erfgoed-gezocht-junior-kinderen-speuren-vanuit-huis-mee-met-archeologen</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>https://www.griepencorona.nl/resultaten/</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>https://www.griepencorona.nl/het-project/</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>https://www.griepencorona.nl/resultaten/</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>https://www.jagersvereniging.nl/downloads/bestuurdersdocumenten/telprotocol-zomerganzentelling/</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>https://www.rivm.nl/rivm/kennis-en-kunde/strategisch-programma-rivm/spr-2015-2018/integrale-risicobeoordeling/ik-heb-nu-last-app</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>https://www.mycardio.nl/</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>https://www.nemokennislink.nl/publicaties/doe-mee-aan-de-grote-griepmeting/</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>https://globenederland.nl/onderzoeksproject/aerosolen/#info</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>https://globenederland.nl/onderzoeksproject/smap/#info</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>https://www.globe.gov/globe-data/visualize-and-retrieve-data</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/download-je-eigen-deeltjesdetector</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1367,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/bekijk-de-aarde-vanuit-de-ruimte</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
+          <t>http://www.wesense.info/en/maps.html</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>http://www.wesense.info/en/index.html</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>http://www.wesense.info/en/maps.html</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>https://ronaldbierings.com/over-zicht-op-licht/</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>https://www.rug.nl/sciencelinx/maatschappij/curious</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1627,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>http://personagebank.nl/resultaten/</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>http://personagebank.nl/</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>http://personagebank.nl/resultaten/</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>https://www.rivm.nl/burgerwetenschap/shift-diets</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/hoe-snel-herken-jij-een-liedje</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>http://www.kijkeengezondewijk.nl/#/info</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1935,12 +1935,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>https://www.wetenschapsknooppunten.nl/alle-scholen-verzamelen/citizen-science/</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>https://www.nemokennislink.nl/publicaties/zie-ik-spoken/</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>https://woordwaark.nl/stemmen/</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>http://stimmen.nl/uitspraakkaarten/</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>http://stimmen.nl/</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>http://stimmen.nl/uitspraakkaarten/</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-6-nationale-plasticwatch</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.floron.nl/meedoen/het-nieuwe-strepen </t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
+          <t>https://www.wiewaswie.nl/</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/kha</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>https://www.wiewaswie.nl/</t>
         </is>
       </c>
     </row>
@@ -2423,12 +2423,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>https://www.zeeuwsarchief.nl/zeeuwen-gezocht/</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>https://www.zeeuwsarchief.nl/zeeuwen-gezocht/</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>http://www.bhic.nl/onderzoeken/hulp-bij-onderzoek/gevangenisarchieven</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/bhic_strafgevangenissen</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>http://www.bhic.nl/onderzoeken/hulp-bij-onderzoek/gevangenisarchieven</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/inventarissen/details/10035</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_kaarten</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/inventarissen/details/10035</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden-2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/raa</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>https://www.regionaalarchiefalkmaar.nl/collecties/beelden/beelden-2/?q=kaarten&amp;mode=gallery&amp;view=horizontal</t>
         </is>
       </c>
     </row>
@@ -2913,12 +2913,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2975,12 +2975,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
+          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han_nijmegen</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>https://studiezaal.nijmegen.nl/zoeken.php</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
+          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/wfg_index</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>https://www.westfriesarchief.nl/onderzoek/zoeken/personen</t>
         </is>
       </c>
     </row>
@@ -3097,12 +3097,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
+          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/som_index</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>https://www.muziekschatten.nl/omroepmuziek#eyJ0eXBlIjoibGlzdCIsImF2YWlsYWJpbGl0eSI6W10sImNvbXBvc2VyIjpbXSwiY2F0ZWdvcnkiOltdLCJnZW5yZSI6W10sImNvbGxlY3Rpb24iOltdLCJpbnN0cnVtZW50IjpbXSwiZmFjZXRzIjp7ImF2YWlsYWJpbGl0eSI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImF2YWlsYWJpbGl0eSIsInNpemUiOjEwMH19LCJjb21wb3NlciI6eyJ0ZXJtcyI6eyJmaWVsZCI6ImNvbXBvc2VyIiwic2l6ZSI6MTAwfX0sImNhdGVnb3J5Ijp7InRlcm1zIjp7ImZpZWxkIjoiY2F0ZWdvcnkiLCJzaXplIjoxMDB9fSwiZ2VucmUiOnsidGVybXMiOnsiZmllbGQiOiJnZW5yZSIsInNpemUiOjEwMH19LCJjb2xsZWN0aW9uIjp7InRlcm1zIjp7ImZpZWxkIjoiY29sbGVjdGlvbiIsInNpemUiOjEwMH19LCJ1bmRlZmluZWQiOnsidGVybXMiOnt9fX19</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
+          <t>https://www.zeeuwsarchief.nl/onderzoek-het-zelf/</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_zar_index_terneuzenaxel</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>https://www.zeeuwsarchief.nl/onderzoek-het-zelf/</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
+          <t>https://search.iisg.amsterdam/Record/ARCH00210</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/mbi</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>https://search.iisg.amsterdam/Record/ARCH00210</t>
         </is>
       </c>
     </row>
@@ -3345,12 +3345,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/uitleg/indexen/41-pensioenkaarten-1894-1915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_pensioen</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/uitleg/indexen/41-pensioenkaarten-1894-1915?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
@@ -3405,12 +3405,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/legermuseum</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/indexen/persons</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_13442</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/indexen/persons</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3527,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/wfg_transcription_notarieel</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3651,12 +3651,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
+          <t>https://www.samh.nl/</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/sahm_indexing_persons</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>https://www.samh.nl/</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/duik-historisch-amsterdam</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3833,12 +3833,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/rar_index_repertoria</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
+          <t>https://www.archiefeemland.nl/</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/gam_gezinskaarten</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>https://www.archiefeemland.nl/</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218640000%22,%2218749999%22%5D,%22d%22:%221864%20-%201874%22%7D%7D</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_index_bvr3</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218640000%22,%2218749999%22%5D,%22d%22:%221864%20-%201874%22%7D%7D</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
+          <t>https://noord-hollandsarchief.nl/beelden/beeldbank/?fq%5B%5D=search_s_afbeelding:%22Ja%22&amp;mode=gallery&amp;view=horizontal&amp;sort=random%7B1612191303970%7D%20asc</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/ranh_tagselection_deboer</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>https://noord-hollandsarchief.nl/beelden/beeldbank/?fq%5B%5D=search_s_afbeelding:%22Ja%22&amp;mode=gallery&amp;view=horizontal&amp;sort=random%7B1612191303970%7D%20asc</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
+          <t>https://www.kabk.nl/alumni/bachelor-beeldende-kunst</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/kabk</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>https://www.kabk.nl/alumni/bachelor-beeldende-kunst</t>
         </is>
       </c>
     </row>
@@ -4139,12 +4139,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mei</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218740000%22,%2218939999%22%5D,%22d%22:%221874%20-%201893%22%7D%7D</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_bvr</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/indexen/persons?f=%7B%22search_i_datum%22:%7B%22v%22:%5B%2218740000%22,%2218939999%22%5D,%22d%22:%221874%20-%201893%22%7D%7D</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
+          <t>https://www.beeldbankgroningen.nl/beelden/?mode=gallery&amp;view=horizontal&amp;sort=random%7B1541835054895%7D%20asc&amp;page=1&amp;fq%5B%5D=search_t_gegeorefereerd:%22ja%22&amp;reverse=0&amp;filterAction</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/gra_kaarten</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>https://www.beeldbankgroningen.nl/beelden/?mode=gallery&amp;view=horizontal&amp;sort=random%7B1541835054895%7D%20asc&amp;page=1&amp;fq%5B%5D=search_t_gegeorefereerd:%22ja%22&amp;reverse=0&amp;filterAction</t>
         </is>
       </c>
     </row>
@@ -4323,12 +4323,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/tlb_index</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/uitleg/indexen/42-patientenregisters-1818-1899?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/amsterdam_patient</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/uitleg/indexen/42-patientenregisters-1818-1899?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
@@ -4447,12 +4447,12 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
+          <t>https://www.geldersarchief.nl/bronnen/archieven/?mivast=37&amp;miadt=37&amp;mizig=128&amp;miview=tbl&amp;milang=nl&amp;micols=1&amp;misort=last_mod%7Cdesc&amp;mib1=113</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/gda</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>https://www.geldersarchief.nl/bronnen/archieven/?mivast=37&amp;miadt=37&amp;mizig=128&amp;miview=tbl&amp;milang=nl&amp;micols=1&amp;misort=last_mod%7Cdesc&amp;mib1=113</t>
         </is>
       </c>
     </row>
@@ -4569,12 +4569,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4689,12 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
+          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/militieregisters</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>https://www.openarch.nl/indexen/9/militieregisters?lang=nl</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4813,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_vrije_volk</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/beeldbank/?mode=gallery&amp;view=horizontal&amp;q=het%20vrije%20volk&amp;page=1&amp;reverse=0</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
+          <t>https://www.wiewaswie.nl/</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/brd_index_repertoria</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>https://www.wiewaswie.nl/</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5055,12 +5055,12 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
+          <t>https://www.naturalis.nl/collectie</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nat_nbc</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>https://www.naturalis.nl/collectie</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5117,12 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/bhic_strafgevangenissen_2</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/huy_correct_resoluties_transkribus</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
+          <t>https://studiezaal.nijmegen.nl/zoeken.php?zoeken[beschrijvingsgroepen][2145654597]=2145654597</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/nijmegen_bvr</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>https://studiezaal.nijmegen.nl/zoeken.php?zoeken[beschrijvingsgroepen][2145654597]=2145654597</t>
         </is>
       </c>
     </row>
@@ -5299,12 +5299,12 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/picvh_bhic_bevolkingsregister</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_correct_notarieel_transkribus</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hga_index_gezinskaarten</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5479,12 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/indexen/persons</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_index_vreemdelingenkaarten</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/indexen/persons</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
+          <t>https://www.archieven.nl/mi/1648/?mivast=1648&amp;mizig=0&amp;miadt=1648&amp;miview=lst&amp;mizk_alle=trefwoord:Bevolkingsregistratiehttps://www.archieven.nl/mi/1648/?mivast=1648&amp;mizig=0&amp;miadt=1648&amp;miview=lst&amp;mizk_alle=trefwoord:Bevolkingsregistratie</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/swl_bvr</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>https://www.archieven.nl/mi/1648/?mivast=1648&amp;mizig=0&amp;miadt=1648&amp;miview=lst&amp;mizk_alle=trefwoord:Bevolkingsregistratiehttps://www.archieven.nl/mi/1648/?mivast=1648&amp;mizig=0&amp;miadt=1648&amp;miview=lst&amp;mizk_alle=trefwoord:Bevolkingsregistratie</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/ranh_index</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5661,12 +5661,12 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5723,12 +5723,12 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/uitleg/indexen/65-bevolkingsregister-overgenomen-delen-1892-1920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/amsterdam_ogd</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/uitleg/indexen/65-bevolkingsregister-overgenomen-delen-1892-1920?utm_source=OpenArchieven&amp;utm_medium=browser&amp;utm_campaign=OpenData</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5845,12 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
+          <t>https://www.huisvandenijmeegsegeschiedenis.nl/info/Deelnemersregistratie_Vierdaagse</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/picvh_han</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>https://www.huisvandenijmeegsegeschiedenis.nl/info/Deelnemersregistratie_Vierdaagse</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
+          <t>https://www.drentsarchief.nl/onderzoeken/zoektips/stamboomonderzoek</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/dre_index_inschrijvingsregisters</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>https://www.drentsarchief.nl/onderzoeken/zoektips/stamboomonderzoek</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/utrecht_transcription_notarieel</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6029,12 +6029,12 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
+          <t>https://www.archieven.nl/nl/zoeken?mivast=0&amp;mizig=0&amp;miadt=0&amp;milang=nl&amp;misort=score%7Cdesc&amp;mizk_alle=deventer&amp;mif3=2&amp;miview=lst</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/sad</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>https://www.archieven.nl/nl/zoeken?mivast=0&amp;mizig=0&amp;miadt=0&amp;milang=nl&amp;misort=score%7Cdesc&amp;mizk_alle=deventer&amp;mif3=2&amp;miview=lst</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/utr_index_bvr_1850_1889</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/zaa_index_gaarder</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/reis-terug-de-tijd</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/afc_tagging_2</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/zaa_index_bron</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
+          <t>https://archief.amsterdam/uitleg/indexen/67-bevolkingsregister-geannexeerde-gemeenten-1830-1921</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/amsterdam_annex_gem</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>https://archief.amsterdam/uitleg/indexen/67-bevolkingsregister-geannexeerde-gemeenten-1830-1921</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/fak_noat</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6513,12 +6513,12 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
+          <t>https://www.archiefeemland.nl/</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gam2</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>https://www.archiefeemland.nl/</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/utr_bvr</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/glv_reuvens_transkribus</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/gea_tagging</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6757,12 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/moei_index_30dagen</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -6819,12 +6819,12 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
+          <t>https://hisgis.nl/projecten/drenthe/</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/fak_oat</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>https://hisgis.nl/projecten/drenthe/</t>
         </is>
       </c>
     </row>
@@ -6881,12 +6881,12 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
+          <t>https://www.archiefeemland.nl/</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/3/project/gam</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>https://www.archiefeemland.nl/</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
+          <t>https://hetutrechtsarchief.nl/onderzoek/resultaten/archieven?mivast=39&amp;mizig=210&amp;miadt=39&amp;miaet=1&amp;micode=1007-2&amp;minr=1307084&amp;miview=inv2&amp;milang=nl</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
           <t>https://utrecht.nieuws.nl/onderwijswetenschap/74887/utrechts-archief-vraagt-hulp-bij-het-ontsluiten-van-utrechtse-bevolkingsregisters/</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>https://hetutrechtsarchief.nl/onderzoek/resultaten/archieven?mivast=39&amp;mizig=210&amp;miadt=39&amp;miaet=1&amp;micode=1007-2&amp;minr=1307084&amp;miview=inv2&amp;milang=nl</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
+          <t>https://archief.ajax.nl/</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/afc_tagging</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>https://archief.ajax.nl/</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/amsterdam_notarieel_2</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7127,12 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/rivierenland_bvr</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7189,12 +7189,12 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
+          <t>http://alledrenten.nl/</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/dre_cmw</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>http://alledrenten.nl/</t>
         </is>
       </c>
     </row>
@@ -7249,12 +7249,12 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hco_resoluties_transkribus</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7311,12 +7311,12 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
+          <t>https://stadsarchief.breda.nl/collectie/archief/genealogische-bronnen/persons</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/brd</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>https://stadsarchief.breda.nl/collectie/archief/genealogische-bronnen/persons</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
+          <t>https://www.erfgoedleiden.nl/collecties/personen</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/leiden</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>https://www.erfgoedleiden.nl/collecties/personen</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
+          <t>https://www.westfriesarchief.nl/</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/wfg</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>https://www.westfriesarchief.nl/</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7495,12 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/sibr_annotate</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7557,12 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/picvh_vpr</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
+          <t>https://literatuurmuseum.nl/</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/lkm_index</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>https://literatuurmuseum.nl/</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
+          <t>https://erfgoedcentrumzutphen.nl/onderzoeken/archieven/details/NL-ZuRAZ-0110/path/2.4.1.2.19</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/2/project/szu_bevolkingsregister</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>https://erfgoedcentrumzutphen.nl/onderzoeken/archieven/details/NL-ZuRAZ-0110/path/2.4.1.2.19</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/airsenseur</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
+          <t>https://login.munisense.net/login?url=https%3A%2F%2Foutdoorclimate.munisense.net%2F&amp;theme=munisense-v2-lhis</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
           <t>https://inhillegersberg.nl/geluid-lucht/424-luchtmeetnet-hillegersberg-schiebroek</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>https://login.munisense.net/login?url=https%3A%2F%2Foutdoorclimate.munisense.net%2F&amp;theme=munisense-v2-lhis</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7867,12 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/vuurwerkexperiment-2019-2020</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7927,12 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
+          <t>https://watermonsters.natuurenmilieu.nl/kaart</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
           <t>https://www.natuurenmilieu.nl/themas/voedsel/projecten-voedsel/waterkwaliteit-biodiversiteit/watermonsters/</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>https://watermonsters.natuurenmilieu.nl/kaart</t>
         </is>
       </c>
     </row>
@@ -7991,12 +7991,12 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
           <t>http://behouddeparel.nl/samen-meten</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -8051,12 +8051,12 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
+          <t>https://vis.globe.gov/GLOBE/</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
           <t>https://globenederland.nl/onderzoeksproject/weer/#info</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>https://vis.globe.gov/GLOBE/</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-7-delft-meet-regen</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
         </is>
       </c>
     </row>
@@ -8183,12 +8183,12 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
           <t>https://www.naturalis.nl/collectie/verborgen-vlinders-het-gestroomlijnd-zichtbaar-maken-van-papillotten</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
+          <t>https://milieudefensie.nl/actueel/rapport-wat-adem-jij-in.pdf</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/meetcampagne-no2-milieudefensie</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>https://milieudefensie.nl/actueel/rapport-wat-adem-jij-in.pdf</t>
         </is>
       </c>
     </row>
@@ -8313,12 +8313,12 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/maaspoort-meet</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
+          <t>https://amt.copernicus.org/articles/11/1297/2018/</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/urban-airq-amsterdam</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>https://amt.copernicus.org/articles/11/1297/2018/</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-4-oeverwatch</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8503,12 +8503,12 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
+          <t>https://grafana.sensemakersams.org/d/m2HAkciWk/mijn-omgeving?orgId=1</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/watermetingen-door-mijn-omgeving</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>https://grafana.sensemakersams.org/d/m2HAkciWk/mijn-omgeving?orgId=1</t>
         </is>
       </c>
     </row>
@@ -8567,12 +8567,12 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
           <t>https://www.flevoland.nl/dossiers/waterlab-circulair-water</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8633,12 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/visibilis</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8693,12 +8693,12 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
+          <t>http://maps.bodemdata.nl/bodemdatanl/index.jsp</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
           <t>https://globenederland.nl/onderzoeksproject/bodem/#metingen</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>http://maps.bodemdata.nl/bodemdatanl/index.jsp</t>
         </is>
       </c>
     </row>
@@ -8753,12 +8753,12 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
+          <t>https://wsrivierenland.maps.arcgis.com/apps/MapSeries/index.html?appid=ecdc63fe87bc431db608377635fa2567</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
           <t>http://altena.gripopwater.nl/over-ons/</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>https://wsrivierenland.maps.arcgis.com/apps/MapSeries/index.html?appid=ecdc63fe87bc431db608377635fa2567</t>
         </is>
       </c>
     </row>
@@ -8817,12 +8817,12 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/metingen-s-gravendijkwal-rotterdam</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
           <t>https://boerenmetenwater.nl/aanleiding/</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/ </t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-stikstofdioxide-meten-met-Palmes-buisjes</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/ </t>
         </is>
       </c>
     </row>
@@ -9069,12 +9069,12 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
+          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=3eb9b39fda224e1086ce8b8ffdacf053&amp;extent=6.0562,53.4204,6.2258,53.4812</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
           <t>https://survey123.arcgis.com/share/9c12036c270940c58de97252e1676ea8</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=3eb9b39fda224e1086ce8b8ffdacf053&amp;extent=6.0562,53.4204,6.2258,53.4812</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-5-zet-m-op-70</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
+          <t>https://hollandseluchten.waag.org/kaart/</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
           <t>https://hollandseluchten.waag.org/</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>https://hollandseluchten.waag.org/kaart/</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
+          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
           <t>https://drinkablerivers.org/what-we-do/citizen-science/</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/onderzoeksresultaten</t>
         </is>
       </c>
     </row>
@@ -9319,12 +9319,12 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
           <t>https://globenederland.nl/onderzoeksprojecten/lichtmeting/</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
           <t>https://www.scorewater.eu/#3cases</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
+          <t>https://snuffelfiets.nl/data/</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/snuffelfiets</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>https://snuffelfiets.nl/data/</t>
         </is>
       </c>
     </row>
@@ -9515,12 +9515,12 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
+          <t>https://www.eyeonwater.org/search/</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
           <t>https://www.eyeonwater.org/about-us</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>https://www.eyeonwater.org/search/</t>
         </is>
       </c>
     </row>
@@ -9579,12 +9579,12 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
+          <t>https://amsterdamsounds.waag.org/kaart/</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
           <t>https://amsterdamsounds.waag.org/</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>https://amsterdamsounds.waag.org/kaart/</t>
         </is>
       </c>
     </row>
@@ -9639,12 +9639,12 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
+          <t>https://reports.explane.org/nl/</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
           <t>https://explane.org/#:~:text=ExPlane%20is%20the%20app%20to%20register%20aviation%20noise&amp;text=The%20app%20gives%20you%20the,by%20residents%20living%20near%20airports</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>https://reports.explane.org/nl/</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-2-check-de-stadsvergroening</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-luchtkwaliteit-meten-in-zuid-holland</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
         </is>
       </c>
     </row>
@@ -9831,12 +9831,12 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-houtrook-meten </t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9893,12 +9893,12 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-2018-2019</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -9959,12 +9959,12 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
+          <t>https://almeremeetwater.nl/kaart/</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
           <t>https://almeremeetwater.nl/</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>https://almeremeetwater.nl/kaart/</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
+          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=9f6c2e258f2f40a884335feaf85501a7&amp;extent=3.9538,51.8158,4.968,52.1811</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-1-waterkwaliteit-in-europa</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>https://www.arcgis.com/home/webmap/viewer.html?webmap=9f6c2e258f2f40a884335feaf85501a7&amp;extent=3.9538,51.8158,4.968,52.1811</t>
         </is>
       </c>
     </row>
@@ -10085,12 +10085,12 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
+          <t>https://data.smartemission.nl/data</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
           <t>https://data.smartemission.nl/home</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>https://data.smartemission.nl/data</t>
         </is>
       </c>
     </row>
@@ -10149,12 +10149,12 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
+          <t>https://www.meetjestad.net/data/</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
           <t>https://www.meetjestad.net/nl/MeetjeStad</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>https://www.meetjestad.net/data/</t>
         </is>
       </c>
     </row>
@@ -10211,12 +10211,12 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerkexperiment-20172018</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -10273,12 +10273,12 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/ispex</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/aireas-eindhoven</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/oud-nieuw-2020-2021</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/vuurwerk/</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
           <t>https://www.kwrwater.nl/projecten/citizen-science-praktijkpilot-versheid-water/</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -10583,12 +10583,12 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/vuurwerk-2016-2017</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/  </t>
         </is>
       </c>
     </row>
@@ -10643,12 +10643,12 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/luftdaten</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10707,12 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
+          <t>https://www.webgispublisher.nl/schiedam/</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/burgermetingen-schiedam</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>https://www.webgispublisher.nl/schiedam/</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/ </t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/jubileumproject-dcmr-no2-burgermetingen-in-rijnmondgebied</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://samenmeten.rivm.nl/dataportaal/ </t>
         </is>
       </c>
     </row>
@@ -10839,12 +10839,12 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
           <t>https://www.waterforum.net/officiele-start-waterlab-flevoland/</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/onze-lucht-zelf-fijnstof-meten-in-noord-nederland</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -10959,12 +10959,12 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
+          <t>https://www.schonerivieren.org/join/resultaten-onderzoeken/</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/word-afvalonderzoeker</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>https://www.schonerivieren.org/join/resultaten-onderzoeken/</t>
         </is>
       </c>
     </row>
@@ -11089,12 +11089,12 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
+          <t>https://www.luchtmeetnet-maastricht.nl/maastricht/</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/maastricht</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>https://www.luchtmeetnet-maastricht.nl/maastricht/</t>
         </is>
       </c>
     </row>
@@ -11149,12 +11149,12 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/samen-geluid-meten</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -11215,12 +11215,12 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
+          <t>https://samenmeten.rivm.nl/dataportaal/</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
           <t>https://www.rivm.nl/boeren-en-buren</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>https://samenmeten.rivm.nl/dataportaal/</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/index.php/data/result/evenement/ES/</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -11341,12 +11341,12 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/oeverplanten</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
+          <t>https://www.nioz.nl/en/about/cos/movement-connectivity/bird-movement/tracking-movements-of-spoonbills/follow-spoonbills-from-the-netherlands</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/volg-de-weg-van-trekvogels</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>https://www.nioz.nl/en/about/cos/movement-connectivity/bird-movement/tracking-movements-of-spoonbills/follow-spoonbills-from-the-netherlands</t>
         </is>
       </c>
     </row>
@@ -11461,12 +11461,12 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/data/result/evenement/EPLONS</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=27308</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -11581,12 +11581,12 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/zo%C3%B6nosenproject</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -11643,12 +11643,12 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
           <t>https://www.eis-nederland.nl/wantsenproject</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -11703,12 +11703,12 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
+          <t>https://www.clo.nl/indicatoren/nl1387-libellen</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/evenementen/libellentelling</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>https://www.clo.nl/indicatoren/nl1387-libellen</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---paardenbloemen</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -11889,12 +11889,12 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
           <t>https://www.floron.nl/meedoen/herbariummateriaal</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -11951,12 +11951,12 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.tuintelling.nl/evenementen </t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12011,12 +12011,12 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/evenementen/kikkerdriltelling</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12071,12 +12071,12 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
           <t>https://www.hortusleiden.nl/onderwijs/stoepplantjes-1</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -12133,12 +12133,12 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.tuintelling.nl/evenementen </t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12193,12 +12193,12 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
           <t>https://www.zoogdiervereniging.nl/wat-we-doen/monitoring/jaarrond-tuintelling/mollentelling</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12253,12 +12253,12 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/bestudeer-wilde-dieren-de-hoge-veluwe</t>
-        </is>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -12313,12 +12313,12 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/ces-het-constant-effort-site-project</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -12373,12 +12373,12 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
           <t>https://www.vogelbescherming.nl/tuinvogeltelling</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12433,12 +12433,12 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
           <t>https://www.floron.nl/plantenjacht</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12493,12 +12493,12 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/data/result/evenement/EBB</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12559,12 +12559,12 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=25068</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -12619,12 +12619,12 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/naturalis</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12679,12 +12679,12 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.floron.nl/meedoen/witte-gebieden </t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12807,12 +12807,12 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.floron.nl/meedoen/kilometerhokken-inventariseren </t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/kraamkamer</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -12931,12 +12931,12 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=22655</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -12991,12 +12991,12 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/data/result/evenement/EE</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13055,12 +13055,12 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
+          <t>https://www.growapp.today/#/</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/observations/growapp</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>https://www.growapp.today/#/</t>
         </is>
       </c>
     </row>
@@ -13115,12 +13115,12 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
           <t>https://www.vlinderstichting.nl/nachtvlindernacht/</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13181,12 +13181,12 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
           <t>https://www.tuintelling.nl/evenementen/avondtelling</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13243,12 +13243,12 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
           <t>https://tuintelling.nl/evenementen/tuinvijvertelling</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13303,12 +13303,12 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/pullen#quicktabs-pullen=0</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -13363,12 +13363,12 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
           <t>https://www.nationalebijentelling.nl/</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13423,12 +13423,12 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
           <t>https://www.ravon.nl/Portals/2/Bestanden/Publicaties/Rapporten/2007.003k.pdf</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13483,12 +13483,12 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
           <t>https://www.floron.nl/bermen</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13543,12 +13543,12 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
           <t>https://www.sovon.nl/nl/actueel/nieuws/lijsters-en-bessen-tellen</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13603,12 +13603,12 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
           <t>https://www.vleermuis.net/</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13663,12 +13663,12 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
           <t>https://www.sovon.nl/nl/MUS</t>
-        </is>
-      </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13723,12 +13723,12 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
           <t>https://submit.cr-birding.org/page/who_are_we/</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -13783,12 +13783,12 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/boerenzwaluw</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -13843,12 +13843,12 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/observations/natuurkalender?utm_source=natuurkalender.nl&amp;utm_medium=redirect&amp;utm_campaign=olddomain</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -13903,12 +13903,12 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/treewifi</t>
-        </is>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -13965,12 +13965,12 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---kauwtjes</t>
-        </is>
-      </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -14025,12 +14025,12 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=26207</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -14087,12 +14087,12 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
           <t>https://www.iedereenwetenschapper.be/projects/hoe-gaat-het-met-de-wilde-eend</t>
-        </is>
-      </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -14147,12 +14147,12 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
           <t>https://www.vlinderstichting.nl/vlindermee/</t>
-        </is>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -14209,12 +14209,12 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---koolmezen</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -14269,12 +14269,12 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/ras-het-retrapping-adults-survival-project</t>
-        </is>
-      </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>
@@ -14331,12 +14331,12 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
           <t>https://www.eis-nederland.nl/actueel/projecten/leuke-vliegen</t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -14393,12 +14393,12 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
           <t>https://www.zooniverse.org/projects/anneoverduin/fishing-in-the-past/about/research</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -14453,12 +14453,12 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
           <t>https://www.floron.nl/meedoen/actualisering-groeiplaatsen-bijzondere-soorten</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
+          <t>https://www.ndff.nl/overdendff/data/</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
           <t>https://bodemdierendagen.nl/</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>https://www.ndff.nl/overdendff/data/</t>
         </is>
       </c>
     </row>
@@ -14633,12 +14633,12 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
+          <t>https://www.cbs.nl/nl-nl/nieuws/2017/01/verspreiding-invasieve-plantensoorten-toegenomen en https://www.clo.nl/indicatoren/nl1398-invasieve-plantensoorten</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
           <t>https://www.floron.nl/meedoen/exoten-melden</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>https://www.cbs.nl/nl-nl/nieuws/2017/01/verspreiding-invasieve-plantensoorten-toegenomen en https://www.clo.nl/indicatoren/nl1398-invasieve-plantensoorten</t>
         </is>
       </c>
     </row>
@@ -14693,12 +14693,12 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
+          <t>https://euring.org/data-and-codes/obtaining-data</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
           <t>https://vogeltrekstation.nl/nl/onderzoek/monitoringsprojecten/ring-mus%20</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>https://euring.org/data-and-codes/obtaining-data</t>
         </is>
       </c>
     </row>

--- a/data/citizen-science-projects-nl.xlsx
+++ b/data/citizen-science-projects-nl.xlsx
@@ -567,11 +567,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/bhic_strafgevangenissen_2</t>
@@ -629,11 +625,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/ja_ik_wil</t>
@@ -689,11 +681,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/tlb_index</t>
@@ -749,11 +737,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/fak_noat</t>
@@ -809,11 +793,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/sibr_annotate</t>
@@ -991,11 +971,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hga_index_gezinskaarten</t>
@@ -1175,11 +1151,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/utr_index_bvr_1850_1889</t>
@@ -1299,11 +1271,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/utr_bvr</t>
@@ -1421,11 +1389,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/gea_tagging</t>
@@ -1481,11 +1445,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/gra_tagging_vanderveen</t>
@@ -1541,11 +1501,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/huy_correct_resoluties_transkribus</t>
@@ -1725,11 +1681,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/wfg_transcription_notarieel</t>
@@ -1849,11 +1801,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/duik-historisch-amsterdam</t>
@@ -1909,11 +1857,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/ranh_index</t>
@@ -1969,11 +1913,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_train_kronieken_transkribus</t>
@@ -2029,11 +1969,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/cbg_index_hal</t>
@@ -2213,11 +2149,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/leiden_na1</t>
@@ -2335,11 +2267,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/afc_tagging_2</t>
@@ -2459,11 +2387,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/picvh_run</t>
@@ -2581,11 +2505,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/wiewaswie_bvr</t>
@@ -2643,11 +2563,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/gda_2</t>
@@ -2701,11 +2617,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/reis-terug-de-tijd</t>
@@ -2761,11 +2673,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/utrecht_transcription_notarieel</t>
@@ -2823,11 +2731,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/zaa_index_bron</t>
@@ -3005,11 +2909,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/moei_index_30dagen</t>
@@ -3375,11 +3275,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/frl</t>
@@ -3621,11 +3517,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hfl_tagging_rijpcollectie</t>
@@ -3869,11 +3761,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/rivierenland_bvr</t>
@@ -3991,11 +3879,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/bhic_repnot</t>
@@ -4053,11 +3937,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/status/closed/page/1/project/glv_reuvens_transkribus</t>
@@ -4175,11 +4055,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/vua_annoteer_kronieken_transkribus</t>
@@ -4297,11 +4173,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/amsterdam_correct_notarieel_transkribus</t>
@@ -4357,11 +4229,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/gda_index_huwelijk</t>
@@ -4479,11 +4347,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/sahm_index_bevolkingsregisters</t>
@@ -5097,11 +4961,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/status/closed/project/picvh_vpr</t>
@@ -5157,11 +5017,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/legermuseum</t>
@@ -5217,11 +5073,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mei</t>
@@ -5277,11 +5129,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/hco_resoluties_transkribus</t>
@@ -5399,11 +5247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/rar_index_repertoria</t>
@@ -5459,11 +5303,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/picvh_bhic_bevolkingsregister</t>
@@ -5581,11 +5421,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/amsterdam_notarieel_2</t>
@@ -5641,11 +5477,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/project/zaa_index_gaarder</t>
@@ -5701,11 +5533,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/nfm_tagging_photos</t>
@@ -5823,11 +5651,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/run_slavenregisters</t>
@@ -5945,11 +5769,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>https://velehanden.nl/projecten/bekijk/details/page/2/project/mai_tagging</t>
@@ -6069,11 +5889,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/download-je-eigen-deeltjesdetector</t>
@@ -6129,11 +5945,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/bekijk-de-aarde-vanuit-de-ruimte</t>
@@ -6251,11 +6063,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>https://www.nemokennislink.nl/publicaties/zie-ik-spoken/</t>
@@ -6379,11 +6187,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>https://www.rivm.nl/burgerwetenschap/shift-diets</t>
@@ -6507,11 +6311,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>https://www.rug.nl/sciencelinx/maatschappij/curious</t>
@@ -6573,11 +6373,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>http://www.kijkeengezondewijk.nl/#/info</t>
@@ -6635,11 +6431,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/hoe-snel-herken-jij-een-liedje</t>
@@ -6823,11 +6615,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>https://ronaldbierings.com/over-zicht-op-licht/</t>
@@ -6883,11 +6671,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>https://woordwaark.nl/stemmen/</t>
@@ -6943,11 +6727,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>https://www.wetenschapsknooppunten.nl/alle-scholen-verzamelen/citizen-science/</t>
@@ -7003,11 +6783,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-6-nationale-plasticwatch</t>
@@ -7125,11 +6901,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>https://www.zooniverse.org/projects/anneoverduin/fishing-in-the-past/about/research</t>
@@ -7375,11 +7147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=25068</t>
@@ -7439,11 +7207,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=22655</t>
@@ -7925,11 +7689,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---koolmezen</t>
@@ -8291,11 +8051,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>https://www.floron.nl/meedoen/herbariummateriaal</t>
@@ -8415,11 +8171,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/bestudeer-wilde-dieren-de-hoge-veluwe</t>
@@ -8535,11 +8287,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
           <t>https://submit.cr-birding.org/page/who_are_we/</t>
@@ -8595,11 +8343,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=27308</t>
@@ -8895,11 +8639,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>https://www.naturetoday.com/intl/nl/nature-reports/message/?msg=26207</t>
@@ -9081,11 +8821,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---kauwtjes</t>
@@ -9203,11 +8939,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/evoscope---paardenbloemen</t>
@@ -9505,11 +9237,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
           <t>https://www.hortusleiden.nl/onderwijs/stoepplantjes-1</t>
@@ -9571,11 +9299,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/oeverplanten</t>
@@ -9875,11 +9599,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/projecten/treewifi</t>
@@ -9999,11 +9719,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
           <t>https://www.iedereenwetenschapper.be/projects/hoe-gaat-het-met-de-wilde-eend</t>
@@ -10605,11 +10321,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/citizensciencelab/projecten/erfgoed-gezocht</t>
@@ -10671,11 +10383,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
           <t>https://www.archeologieleeft.nl/archeosuccessen/erfgoed-gezocht/</t>
@@ -10731,11 +10439,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
           <t>https://www.universiteitleiden.nl/nieuws/2020/04/erfgoed-gezocht-junior-kinderen-speuren-vanuit-huis-mee-met-archeologen</t>
@@ -10857,11 +10561,7 @@
           <t>Unsure</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
           <t>https://boerenmetenwater.nl/aanleiding/</t>
@@ -11175,11 +10875,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-4-oeverwatch</t>
@@ -11613,11 +11309,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-2-check-de-stadsvergroening</t>
@@ -11743,11 +11435,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/aireas-eindhoven</t>
@@ -11807,11 +11495,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
           <t>https://www.naturalis.nl/collectie/verborgen-vlinders-het-gestroomlijnd-zichtbaar-maken-van-papillotten</t>
@@ -11993,11 +11677,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
           <t>https://www.kwrwater.nl/projecten/citizen-science-praktijkpilot-versheid-water/</t>
@@ -12117,11 +11797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
           <t>https://www.flevoland.nl/dossiers/waterlab-circulair-water</t>
@@ -12307,11 +11983,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
           <t>https://www.scorewater.eu/#3cases</t>
@@ -12619,11 +12291,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/visibilis</t>
@@ -12685,11 +12353,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
           <t>https://www.waterforum.net/officiele-start-waterlab-flevoland/</t>
@@ -12871,11 +12535,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
           <t>https://globenederland.nl/onderzoeksprojecten/lichtmeting/</t>
@@ -13125,11 +12785,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/airsenseur</t>
@@ -13313,11 +12969,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/metingen-s-gravendijkwal-rotterdam</t>
@@ -13435,11 +13087,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
           <t>https://www.samenmetenaanluchtkwaliteit.nl/ispex</t>
@@ -14265,11 +13913,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
           <t>https://www.tudelft.nl/scd/waterlab/doe-mee-aan-onderzoek/project-5-zet-m-op-70</t>
@@ -14387,11 +14031,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
           <t>https://www.nemokennislink.nl/publicaties/doe-mee-aan-de-grote-griepmeting/</t>
@@ -14447,11 +14087,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
           <t>https://www.rivm.nl/rivm/kennis-en-kunde/strategisch-programma-rivm/spr-2015-2018/integrale-risicobeoordeling/ik-heb-nu-last-app</t>
@@ -14571,11 +14207,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
           <t>https://www.jagersvereniging.nl/downloads/bestuurdersdocumenten/telprotocol-zomerganzentelling/</t>
@@ -14753,11 +14385,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
           <t>https://www.mycardio.nl/</t>
